--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_1_site_p.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_1_site_p.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94AB69F-65FF-404F-A251-81EC966EE204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4160E2-EE17-4EED-BC20-729EA71F27A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -440,9 +440,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>lr_p_2406</t>
-  </si>
-  <si>
     <t>end repeat</t>
   </si>
   <si>
@@ -482,9 +479,6 @@
     <t>if(${c_site} = 'Autre', concat(${c_recorder}, '-', ${c_site_id2}, '-' ,${p_num}), concat(${c_recorder}, '-', ${c_site_id}, '-' ,${p_num}))</t>
   </si>
   <si>
-    <t>(2024 Juin) 1. Pre-TAS FL Formulaire Site &amp; participant</t>
-  </si>
-  <si>
     <t>c_site1</t>
   </si>
   <si>
@@ -509,9 +503,6 @@
     <t>if (${C2} = 1,'',substring-after(${C1},${p_num}))</t>
   </si>
   <si>
-    <t>(. &gt; 0 and . &lt;= 410) and not(selected(${C3}, ${p_num}))</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ce code d'identification est déjà utilisé ou la valeur n'est pas comprise entre 1 et 410 </t>
   </si>
   <si>
@@ -521,7 +512,16 @@
     <t>if(${c_site1} = 'Autre', ${c_site_id2}, ${c_site_id1})</t>
   </si>
   <si>
-    <t>ci_lf_pretas_2406_1_site_p</t>
+    <t>not(selected(${C3}, ${p_num})) and . &gt; 0 and . &lt;= 410</t>
+  </si>
+  <si>
+    <t>ci_lf_pretas_2406_1_site_p_v1</t>
+  </si>
+  <si>
+    <t>(2024 Juin) 1. Pre-TAS FL Formulaire Site &amp; participant V1</t>
+  </si>
+  <si>
+    <t>lr_p_2406_1</t>
   </si>
 </sst>
 </file>
@@ -1178,11 +1178,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1354,7 +1354,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>32</v>
@@ -1376,7 +1376,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>88</v>
@@ -1384,7 +1384,7 @@
       <c r="D8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
@@ -1410,7 +1410,7 @@
         <v>40</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>19</v>
@@ -1430,7 +1430,7 @@
         <v>44</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>19</v>
@@ -1447,10 +1447,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="6" t="s">
@@ -1465,10 +1465,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="6" t="s">
@@ -1590,7 +1590,7 @@
         <v>57</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>19</v>
@@ -1626,7 +1626,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -1637,7 +1637,7 @@
         <v>130</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>131</v>
@@ -1688,7 +1688,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -1738,7 +1738,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31" t="s">
@@ -1767,7 +1767,7 @@
         <v>113</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31" t="s">
@@ -1796,7 +1796,7 @@
         <v>117</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="31" t="s">
@@ -1808,7 +1808,7 @@
     </row>
     <row r="30" spans="1:14" s="5" customFormat="1" ht="47.25">
       <c r="A30" s="5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>118</v>
@@ -1821,13 +1821,13 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
@@ -1852,10 +1852,10 @@
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
       <c r="H31" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="31" t="s">
         <v>147</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>148</v>
       </c>
       <c r="J31" s="31" t="s">
         <v>19</v>
@@ -1904,7 +1904,7 @@
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="35" spans="1:14" customFormat="1">
       <c r="A35" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="34"/>
@@ -2308,46 +2308,46 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="C26" s="42" t="s">
         <v>138</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>140</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>143</v>
-      </c>
       <c r="C28" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>144</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -2490,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2517,10 +2517,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>85</v>

--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_1_site_p.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_1_site_p.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4160E2-EE17-4EED-BC20-729EA71F27A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A9EAA1-4312-4373-A91D-939C1D9E91AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1178,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2490,13 +2490,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="46.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="48.25" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.125" style="6" customWidth="1"/>
     <col min="3" max="16384" width="11" style="6"/>
   </cols>
